--- a/liste_fonctionnalite.xlsx
+++ b/liste_fonctionnalite.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="32">
   <si>
     <t>fonctionnalité</t>
   </si>
@@ -51,9 +51,6 @@
   </si>
   <si>
     <t>A - Afficher etat hotel</t>
-  </si>
-  <si>
-    <t>B - Afficher nombre de chambres réservés</t>
   </si>
   <si>
     <t>C- Afficher nombre de chambres libres</t>
@@ -120,6 +117,9 @@
   </si>
   <si>
     <t>réservation client ayant déjà 1 reservation minimum</t>
+  </si>
+  <si>
+    <t>B - Afficher nombre de chambres occupées</t>
   </si>
 </sst>
 </file>
@@ -354,40 +354,6 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF6AA84F"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="medium">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="medium">
-          <color rgb="FF000000"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="medium">
@@ -413,13 +379,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="medium">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <left style="medium">
           <color rgb="FF000000"/>
         </left>
@@ -432,6 +391,47 @@
         <bottom style="medium">
           <color rgb="FF000000"/>
         </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="medium">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF6AA84F"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="medium">
+          <color rgb="FF000000"/>
+        </right>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
   </dxfs>
@@ -448,11 +448,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tableau2" displayName="Tableau2" ref="B5:C38" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="3" tableBorderDxfId="4" totalsRowBorderDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tableau2" displayName="Tableau2" ref="B5:C38" totalsRowShown="0" headerRowDxfId="4" headerRowBorderDxfId="3" tableBorderDxfId="2" totalsRowBorderDxfId="1">
   <autoFilter ref="B5:C38"/>
   <tableColumns count="2">
     <tableColumn id="1" name="fonctionnalité"/>
-    <tableColumn id="2" name="fonctionne oui/non" dataDxfId="1"/>
+    <tableColumn id="2" name="fonctionne oui/non" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -724,7 +724,7 @@
   <dimension ref="B2:C1022"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -735,17 +735,17 @@
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C4" s="1"/>
     </row>
@@ -765,7 +765,7 @@
     </row>
     <row r="7" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C7" s="11" t="s">
         <v>3</v>
@@ -809,41 +809,51 @@
       <c r="B13" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="11"/>
+      <c r="C13" s="11" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="14" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="11"/>
+        <v>31</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="15" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" s="11"/>
+        <v>9</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="16" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" s="11"/>
+        <v>28</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="17" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C17" s="11"/>
+        <v>10</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="18" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C18" s="12"/>
     </row>
     <row r="19" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C19" s="11" t="s">
         <v>3</v>
@@ -851,7 +861,7 @@
     </row>
     <row r="20" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C20" s="11" t="s">
         <v>3</v>
@@ -859,7 +869,7 @@
     </row>
     <row r="21" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C21" s="11" t="s">
         <v>3</v>
@@ -867,7 +877,7 @@
     </row>
     <row r="22" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C22" s="11" t="s">
         <v>3</v>
@@ -875,7 +885,7 @@
     </row>
     <row r="23" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C23" s="11" t="s">
         <v>3</v>
@@ -883,7 +893,7 @@
     </row>
     <row r="24" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C24" s="11" t="s">
         <v>3</v>
@@ -891,13 +901,13 @@
     </row>
     <row r="25" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C25" s="12"/>
     </row>
     <row r="26" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C26" s="11" t="s">
         <v>3</v>
@@ -905,7 +915,7 @@
     </row>
     <row r="27" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C27" s="11" t="s">
         <v>3</v>
@@ -913,7 +923,7 @@
     </row>
     <row r="28" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B28" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C28" s="11" t="s">
         <v>3</v>
@@ -921,7 +931,7 @@
     </row>
     <row r="29" spans="2:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B29" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C29" s="11" t="s">
         <v>3</v>
@@ -929,7 +939,7 @@
     </row>
     <row r="30" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B30" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C30" s="12"/>
     </row>
@@ -943,7 +953,7 @@
     </row>
     <row r="33" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B33" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C33" s="12"/>
     </row>
@@ -961,13 +971,13 @@
     </row>
     <row r="37" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B37" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C37" s="12"/>
     </row>
     <row r="38" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B38" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C38" s="16" t="s">
         <v>3</v>

--- a/liste_fonctionnalite.xlsx
+++ b/liste_fonctionnalite.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="42">
   <si>
     <t>fonctionnalité</t>
   </si>
@@ -121,12 +121,42 @@
   <si>
     <t>B - Afficher nombre de chambres occupées</t>
   </si>
+  <si>
+    <t>affichage liste des clients de l hotel</t>
+  </si>
+  <si>
+    <t>identification du client</t>
+  </si>
+  <si>
+    <t>modification de la reservation avec dates du client</t>
+  </si>
+  <si>
+    <t>affichage du montant à payer</t>
+  </si>
+  <si>
+    <t>paiement de la modification</t>
+  </si>
+  <si>
+    <t>creation  de la facture en fichier pdf</t>
+  </si>
+  <si>
+    <t>envoi facture par mail</t>
+  </si>
+  <si>
+    <t>affichage des reservations du client</t>
+  </si>
+  <si>
+    <t>choix de la reservation à annuler</t>
+  </si>
+  <si>
+    <t xml:space="preserve">remboursement du montant total </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -139,6 +169,11 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="6">
@@ -285,7 +320,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -331,6 +366,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -448,8 +486,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tableau2" displayName="Tableau2" ref="B5:C38" totalsRowShown="0" headerRowDxfId="4" headerRowBorderDxfId="3" tableBorderDxfId="2" totalsRowBorderDxfId="1">
-  <autoFilter ref="B5:C38"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tableau2" displayName="Tableau2" ref="B5:C47" totalsRowShown="0" headerRowDxfId="4" headerRowBorderDxfId="3" tableBorderDxfId="2" totalsRowBorderDxfId="1">
+  <autoFilter ref="B5:C47"/>
   <tableColumns count="2">
     <tableColumn id="1" name="fonctionnalité"/>
     <tableColumn id="2" name="fonctionne oui/non" dataDxfId="0"/>
@@ -721,10 +759,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:C1022"/>
+  <dimension ref="B2:C1031"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -944,88 +982,144 @@
       <c r="C30" s="12"/>
     </row>
     <row r="31" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="8"/>
-      <c r="C31" s="11"/>
+      <c r="B31" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="32" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="8"/>
-      <c r="C32" s="11"/>
+      <c r="B32" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32" s="17" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="33" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="9" t="s">
+      <c r="B33" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33" s="17" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34" s="17" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35" s="17" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36" s="17" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C37" s="17" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C38" s="17" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C33" s="12"/>
-    </row>
-    <row r="34" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="8"/>
-      <c r="C34" s="11"/>
-    </row>
-    <row r="35" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="7"/>
-      <c r="C35" s="11"/>
-    </row>
-    <row r="36" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="7"/>
-      <c r="C36" s="11"/>
-    </row>
-    <row r="37" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="9" t="s">
+      <c r="C39" s="12"/>
+    </row>
+    <row r="40" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C40" s="11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C41" s="17" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C42" s="17" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C43" s="17" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C44" s="17" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C45" s="17" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C37" s="12"/>
-    </row>
-    <row r="38" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="15" t="s">
+      <c r="C46" s="12"/>
+    </row>
+    <row r="47" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C38" s="16" t="s">
+      <c r="C47" s="16" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
-    </row>
-    <row r="40" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
-    </row>
-    <row r="41" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="3"/>
-      <c r="C41" s="3"/>
-    </row>
-    <row r="42" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="3"/>
-      <c r="C42" s="3"/>
-    </row>
-    <row r="43" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="3"/>
-      <c r="C43" s="3"/>
-    </row>
-    <row r="44" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="3"/>
-      <c r="C44" s="3"/>
-    </row>
-    <row r="45" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="3"/>
-      <c r="C45" s="3"/>
-    </row>
-    <row r="46" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="3"/>
-      <c r="C46" s="3"/>
-    </row>
-    <row r="47" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="3"/>
-      <c r="C47" s="3"/>
-    </row>
     <row r="48" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="3"/>
-      <c r="C48" s="3"/>
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
     </row>
     <row r="49" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="3"/>
-      <c r="C49" s="3"/>
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
     </row>
     <row r="50" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B50" s="3"/>
@@ -4918,6 +5012,42 @@
     <row r="1022" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1022" s="3"/>
       <c r="C1022" s="3"/>
+    </row>
+    <row r="1023" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1023" s="3"/>
+      <c r="C1023" s="3"/>
+    </row>
+    <row r="1024" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1024" s="3"/>
+      <c r="C1024" s="3"/>
+    </row>
+    <row r="1025" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1025" s="3"/>
+      <c r="C1025" s="3"/>
+    </row>
+    <row r="1026" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1026" s="3"/>
+      <c r="C1026" s="3"/>
+    </row>
+    <row r="1027" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1027" s="3"/>
+      <c r="C1027" s="3"/>
+    </row>
+    <row r="1028" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1028" s="3"/>
+      <c r="C1028" s="3"/>
+    </row>
+    <row r="1029" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1029" s="3"/>
+      <c r="C1029" s="3"/>
+    </row>
+    <row r="1030" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1030" s="3"/>
+      <c r="C1030" s="3"/>
+    </row>
+    <row r="1031" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1031" s="3"/>
+      <c r="C1031" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
